--- a/2022/Realme/May/25.05.2022/realme Bank Statement May-20222.xlsx
+++ b/2022/Realme/May/25.05.2022/realme Bank Statement May-20222.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Realme\May\24.05.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Realme\May\25.05.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="118">
   <si>
     <t>Date</t>
   </si>
@@ -361,9 +361,6 @@
     <t>19.05.2022</t>
   </si>
   <si>
-    <t>Shaha Mobile Showroom</t>
-  </si>
-  <si>
     <t>N=Saha Mobile Showroom</t>
   </si>
   <si>
@@ -385,7 +382,10 @@
     <t>24.05.2022</t>
   </si>
   <si>
-    <t>Date:24.05.2022</t>
+    <t>25.05.2022</t>
+  </si>
+  <si>
+    <t>Date:25.05.2022</t>
   </si>
 </sst>
 </file>
@@ -2414,12 +2414,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2430,39 +2463,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="37" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3116,7 +3116,7 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3603,7 +3603,7 @@
         <v>85</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="15"/>
@@ -3612,7 +3612,7 @@
     <row r="26" spans="1:10">
       <c r="A26" s="15"/>
       <c r="B26" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="19">
         <v>0</v>
@@ -3633,7 +3633,7 @@
     <row r="27" spans="1:10">
       <c r="A27" s="15"/>
       <c r="B27" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" s="19">
         <v>470000</v>
@@ -3654,7 +3654,7 @@
     <row r="28" spans="1:10">
       <c r="A28" s="15"/>
       <c r="B28" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="19">
         <v>550000</v>
@@ -3675,7 +3675,7 @@
     <row r="29" spans="1:10">
       <c r="A29" s="15"/>
       <c r="B29" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" s="19">
         <v>75000</v>
@@ -3696,7 +3696,7 @@
     <row r="30" spans="1:10">
       <c r="A30" s="15"/>
       <c r="B30" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="19">
         <v>300000</v>
@@ -3716,9 +3716,15 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="15"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="B31" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="19">
+        <v>310000</v>
+      </c>
+      <c r="D31" s="19">
+        <v>310000</v>
+      </c>
       <c r="E31" s="21">
         <f t="shared" si="0"/>
         <v>26807</v>
@@ -4005,11 +4011,11 @@
       <c r="B52" s="25"/>
       <c r="C52" s="21">
         <f>SUM(C6:C51)</f>
-        <v>12069807</v>
+        <v>12379807</v>
       </c>
       <c r="D52" s="21">
         <f>SUM(D6:D51)</f>
-        <v>12043000</v>
+        <v>12353000</v>
       </c>
       <c r="E52" s="21"/>
       <c r="F52" s="1"/>
@@ -4055,8 +4061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
@@ -4074,67 +4080,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="229" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
-      <c r="O1" s="235"/>
-      <c r="P1" s="235"/>
-      <c r="Q1" s="235"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="229"/>
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
     </row>
     <row r="2" spans="1:24" s="62" customFormat="1" ht="18">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="230" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
-      <c r="Q2" s="236"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
     </row>
     <row r="3" spans="1:24" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="231" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="238"/>
-      <c r="H3" s="238"/>
-      <c r="I3" s="238"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="238"/>
-      <c r="O3" s="238"/>
-      <c r="P3" s="238"/>
-      <c r="Q3" s="239"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="232"/>
+      <c r="N3" s="232"/>
+      <c r="O3" s="232"/>
+      <c r="P3" s="232"/>
+      <c r="Q3" s="233"/>
       <c r="S3" s="42"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4143,52 +4149,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="65" customFormat="1">
-      <c r="A4" s="240" t="s">
+      <c r="A4" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="242" t="s">
+      <c r="B4" s="236" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="229" t="s">
+      <c r="C4" s="238" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="229" t="s">
+      <c r="D4" s="238" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="229" t="s">
+      <c r="E4" s="238" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="229" t="s">
+      <c r="F4" s="238" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="229" t="s">
+      <c r="G4" s="238" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="229" t="s">
+      <c r="H4" s="238" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="229" t="s">
+      <c r="I4" s="238" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="229" t="s">
+      <c r="J4" s="238" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="229" t="s">
+      <c r="K4" s="238" t="s">
         <v>76</v>
       </c>
-      <c r="L4" s="229" t="s">
+      <c r="L4" s="238" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="229" t="s">
+      <c r="M4" s="238" t="s">
         <v>105</v>
       </c>
-      <c r="N4" s="233" t="s">
+      <c r="N4" s="244" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="231" t="s">
+      <c r="O4" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="244" t="s">
+      <c r="P4" s="240" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="64" t="s">
@@ -4201,22 +4207,22 @@
       <c r="W4" s="67"/>
     </row>
     <row r="5" spans="1:24" s="65" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="241"/>
-      <c r="B5" s="243"/>
-      <c r="C5" s="230"/>
-      <c r="D5" s="230"/>
-      <c r="E5" s="230"/>
-      <c r="F5" s="230"/>
-      <c r="G5" s="230"/>
-      <c r="H5" s="230"/>
-      <c r="I5" s="230"/>
-      <c r="J5" s="230"/>
-      <c r="K5" s="230"/>
-      <c r="L5" s="230"/>
-      <c r="M5" s="230"/>
-      <c r="N5" s="234"/>
-      <c r="O5" s="232"/>
-      <c r="P5" s="245"/>
+      <c r="A5" s="235"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="239"/>
+      <c r="L5" s="239"/>
+      <c r="M5" s="239"/>
+      <c r="N5" s="245"/>
+      <c r="O5" s="243"/>
+      <c r="P5" s="241"/>
       <c r="Q5" s="69" t="s">
         <v>32</v>
       </c>
@@ -4793,7 +4799,7 @@
     </row>
     <row r="21" spans="1:23" s="9" customFormat="1">
       <c r="A21" s="73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="81">
         <v>500</v>
@@ -4813,21 +4819,23 @@
         <v>80</v>
       </c>
       <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
+      <c r="L21" s="82">
+        <v>1700</v>
+      </c>
       <c r="M21" s="112"/>
       <c r="N21" s="82"/>
       <c r="O21" s="82"/>
       <c r="P21" s="84"/>
       <c r="Q21" s="78">
         <f t="shared" si="0"/>
-        <v>670</v>
+        <v>2370</v>
       </c>
       <c r="R21" s="79"/>
       <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:23" s="9" customFormat="1">
       <c r="A22" s="73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" s="81"/>
       <c r="C22" s="74"/>
@@ -4859,7 +4867,7 @@
     </row>
     <row r="23" spans="1:23" s="89" customFormat="1">
       <c r="A23" s="73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" s="81"/>
       <c r="C23" s="74"/>
@@ -4891,7 +4899,7 @@
     </row>
     <row r="24" spans="1:23" s="9" customFormat="1">
       <c r="A24" s="73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="81">
         <v>500</v>
@@ -4925,7 +4933,9 @@
       <c r="W24" s="90"/>
     </row>
     <row r="25" spans="1:23" s="89" customFormat="1">
-      <c r="A25" s="73"/>
+      <c r="A25" s="73" t="s">
+        <v>116</v>
+      </c>
       <c r="B25" s="81"/>
       <c r="C25" s="74"/>
       <c r="D25" s="82"/>
@@ -4933,8 +4943,12 @@
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
       <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
+      <c r="I25" s="82">
+        <v>130</v>
+      </c>
+      <c r="J25" s="82">
+        <v>80</v>
+      </c>
       <c r="K25" s="82"/>
       <c r="L25" s="82"/>
       <c r="M25" s="112"/>
@@ -4943,7 +4957,7 @@
       <c r="P25" s="84"/>
       <c r="Q25" s="78">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="R25" s="88"/>
       <c r="S25" s="4"/>
@@ -5246,11 +5260,11 @@
       </c>
       <c r="I37" s="100">
         <f t="shared" si="1"/>
-        <v>3440</v>
+        <v>3570</v>
       </c>
       <c r="J37" s="100">
         <f t="shared" si="1"/>
-        <v>2720</v>
+        <v>2800</v>
       </c>
       <c r="K37" s="100">
         <f t="shared" si="1"/>
@@ -5258,7 +5272,7 @@
       </c>
       <c r="L37" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="M37" s="115">
         <f t="shared" si="1"/>
@@ -5278,7 +5292,7 @@
       </c>
       <c r="Q37" s="102">
         <f>SUM(Q6:Q36)</f>
-        <v>16248</v>
+        <v>18158</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -7280,6 +7294,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7296,9 +7313,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7309,8 +7323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE232"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A41" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9199,11 +9213,11 @@
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
       <c r="D31" s="39">
-        <v>-847260</v>
+        <v>-751350</v>
       </c>
       <c r="E31" s="206">
         <f t="shared" si="0"/>
-        <v>-847260</v>
+        <v>-751350</v>
       </c>
       <c r="F31" s="211"/>
       <c r="G31" s="50"/>
@@ -9332,11 +9346,11 @@
       <c r="D33" s="216"/>
       <c r="E33" s="217">
         <f>SUM(E5:E32)</f>
-        <v>-847260</v>
+        <v>-751350</v>
       </c>
       <c r="F33" s="218">
         <f>B33-E33</f>
-        <v>847260</v>
+        <v>751350</v>
       </c>
       <c r="G33" s="50"/>
       <c r="H33" s="38"/>
@@ -9652,7 +9666,7 @@
         <v>30180</v>
       </c>
       <c r="D38" s="180" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
@@ -9784,7 +9798,7 @@
         <v>5000</v>
       </c>
       <c r="D40" s="181" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40" s="41"/>
       <c r="F40" s="42"/>
@@ -9984,7 +9998,7 @@
         <v>300000</v>
       </c>
       <c r="D43" s="181" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43" s="42"/>
       <c r="F43" s="116"/>
@@ -10098,7 +10112,7 @@
       </c>
       <c r="B45" s="178"/>
       <c r="C45" s="179">
-        <v>97500</v>
+        <v>87500</v>
       </c>
       <c r="D45" s="195" t="s">
         <v>116</v>
@@ -10155,7 +10169,7 @@
       </c>
       <c r="B46" s="178"/>
       <c r="C46" s="179">
-        <v>144550</v>
+        <v>97550</v>
       </c>
       <c r="D46" s="180" t="s">
         <v>116</v>
@@ -10209,18 +10223,16 @@
     </row>
     <row r="47" spans="1:57" ht="14.25">
       <c r="A47" s="178" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B47" s="178"/>
       <c r="C47" s="179">
-        <v>38910</v>
+        <v>59000</v>
       </c>
       <c r="D47" s="180" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="41" t="s">
-        <v>11</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E47" s="41"/>
       <c r="G47" s="116"/>
       <c r="H47" s="116"/>
       <c r="I47" s="116"/>
@@ -10267,15 +10279,17 @@
       <c r="AX47" s="116"/>
     </row>
     <row r="48" spans="1:57" ht="14.25">
-      <c r="A48" s="178" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" s="178"/>
+      <c r="A48" s="184" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="178" t="s">
+        <v>56</v>
+      </c>
       <c r="C48" s="179">
-        <v>59000</v>
-      </c>
-      <c r="D48" s="180" t="s">
-        <v>104</v>
+        <v>30180</v>
+      </c>
+      <c r="D48" s="181" t="s">
+        <v>70</v>
       </c>
       <c r="E48" s="41"/>
       <c r="G48" s="116"/>
@@ -10324,8 +10338,8 @@
       <c r="AX48" s="116"/>
     </row>
     <row r="49" spans="1:50" ht="14.25">
-      <c r="A49" s="184" t="s">
-        <v>57</v>
+      <c r="A49" s="178" t="s">
+        <v>52</v>
       </c>
       <c r="B49" s="178" t="s">
         <v>56</v>
@@ -10333,8 +10347,8 @@
       <c r="C49" s="179">
         <v>30180</v>
       </c>
-      <c r="D49" s="181" t="s">
-        <v>70</v>
+      <c r="D49" s="180" t="s">
+        <v>113</v>
       </c>
       <c r="E49" s="41"/>
       <c r="G49" s="116"/>
@@ -10383,18 +10397,10 @@
       <c r="AX49" s="116"/>
     </row>
     <row r="50" spans="1:50" ht="14.25">
-      <c r="A50" s="178" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="178" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="179">
-        <v>30180</v>
-      </c>
-      <c r="D50" s="180" t="s">
-        <v>114</v>
-      </c>
+      <c r="A50" s="178"/>
+      <c r="B50" s="178"/>
+      <c r="C50" s="179"/>
+      <c r="D50" s="180"/>
       <c r="E50" s="41"/>
       <c r="G50" s="116"/>
       <c r="H50" s="116"/>
@@ -13957,7 +13963,7 @@
       <c r="B119" s="247"/>
       <c r="C119" s="176">
         <f>SUM(C37:C118)</f>
-        <v>847260</v>
+        <v>751350</v>
       </c>
       <c r="D119" s="175"/>
       <c r="F119" s="116"/>
@@ -14064,7 +14070,7 @@
       <c r="B121" s="249"/>
       <c r="C121" s="133">
         <f>C119</f>
-        <v>847260</v>
+        <v>751350</v>
       </c>
       <c r="D121" s="132"/>
       <c r="F121" s="116"/>
@@ -14832,7 +14838,7 @@
   <dimension ref="A1:AB217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -14953,7 +14959,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="140">
-        <v>7384207</v>
+        <v>7508179</v>
       </c>
       <c r="F5" s="144"/>
       <c r="I5" s="1"/>
@@ -14982,7 +14988,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="123">
-        <v>227652.65</v>
+        <v>234102.65</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="120" t="s">
@@ -15026,7 +15032,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="141">
-        <v>513760.65000000037</v>
+        <v>523598.65000000037</v>
       </c>
       <c r="F7" s="144"/>
       <c r="G7" s="15" t="s">
@@ -15088,7 +15094,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="123">
-        <v>16248</v>
+        <v>18158</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="120"/>
@@ -15129,7 +15135,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="124">
-        <v>847260</v>
+        <v>791350</v>
       </c>
       <c r="F10" s="144"/>
       <c r="G10" s="28"/>
@@ -15161,7 +15167,7 @@
       </c>
       <c r="B11" s="189">
         <f>B6-B9-B10+B7</f>
-        <v>246594.65</v>
+        <v>251134.65</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="120" t="s">
@@ -15203,7 +15209,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="141">
-        <v>386860</v>
+        <v>313500</v>
       </c>
       <c r="F12" s="144"/>
       <c r="G12" s="8"/>
@@ -15357,7 +15363,7 @@
       </c>
       <c r="B18" s="123">
         <f>B5+B11+B14</f>
-        <v>9246594.6500000004</v>
+        <v>9251134.6500000004</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="120" t="s">
@@ -15365,7 +15371,7 @@
       </c>
       <c r="E18" s="124">
         <f>SUM(E5:E17)</f>
-        <v>9246594.6500000004</v>
+        <v>9251134.6500000004</v>
       </c>
       <c r="F18" s="144"/>
       <c r="G18" s="127"/>
@@ -15462,7 +15468,7 @@
         <v>75</v>
       </c>
       <c r="E21" s="147">
-        <v>144550</v>
+        <v>105000</v>
       </c>
       <c r="F21" s="145"/>
       <c r="H21" s="1"/>
@@ -15487,17 +15493,17 @@
     </row>
     <row r="22" spans="1:28" ht="21.75">
       <c r="A22" s="153" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" s="151">
-        <v>38910</v>
+        <v>10000</v>
       </c>
       <c r="C22" s="152"/>
       <c r="D22" s="150" t="s">
         <v>74</v>
       </c>
       <c r="E22" s="154">
-        <v>97500</v>
+        <v>87500</v>
       </c>
       <c r="F22" s="145"/>
       <c r="I22" s="1"/>
@@ -15542,7 +15548,7 @@
         <v>62</v>
       </c>
       <c r="B24" s="197">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="C24" s="198"/>
       <c r="D24" s="199" t="s">
@@ -15556,7 +15562,7 @@
     </row>
     <row r="25" spans="1:28" s="1" customFormat="1" ht="22.5" thickBot="1">
       <c r="A25" s="220" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" s="221">
         <v>7000</v>
